--- a/住房数据字典.xlsx
+++ b/住房数据字典.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="1360" windowWidth="17680" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="房价信息表" sheetId="1" r:id="rId1"/>
+    <sheet name="城市信息表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>字段</t>
   </si>
@@ -125,10 +126,28 @@
     <t>PRI</t>
   </si>
   <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
     <t>varchar(100)</t>
   </si>
   <si>
     <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>主键自增</t>
+  </si>
+  <si>
+    <t>城市简码</t>
+  </si>
+  <si>
+    <t>城市名称</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
   </si>
 </sst>
 </file>
@@ -183,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -264,6 +283,50 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -280,7 +343,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,6 +377,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -604,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:F12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>30</v>
@@ -674,7 +755,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>30</v>
@@ -690,7 +771,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>30</v>
@@ -706,7 +787,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>30</v>
@@ -722,7 +803,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>30</v>
@@ -738,7 +819,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>30</v>
@@ -754,7 +835,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>30</v>
@@ -770,7 +851,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>30</v>
@@ -786,7 +867,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>30</v>
@@ -802,7 +883,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>30</v>
@@ -817,4 +898,95 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>